--- a/example/Builder/Tables/GameTable.xlsx
+++ b/example/Builder/Tables/GameTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\Builder\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1ED8D-9E37-401E-9566-E8188E778439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C4108-9586-460B-A061-581120D17D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
+    <workbookView xWindow="3420" yWindow="1785" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CHARACTER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>charName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>STUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key,show</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,9 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E1AEE7-F4DE-4E91-91DE-1DBDA9BA8502}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -608,7 +610,7 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -652,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401DA0E-6D94-4657-8FD9-3F778EFEE5A9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/example/Builder/Tables/GameTable.xlsx
+++ b/example/Builder/Tables/GameTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\Builder\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C4108-9586-460B-A061-581120D17D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76754DE-8F44-4D09-8F52-36365003DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1785" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CHARACTER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>charName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -156,6 +156,49 @@
   </si>
   <si>
     <t>key,show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test class type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,7,name2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,name1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test int array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401DA0E-6D94-4657-8FD9-3F778EFEE5A9}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -663,9 +706,10 @@
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -678,8 +722,14 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -692,8 +742,14 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,13 +762,22 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -725,8 +790,14 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -738,6 +809,12 @@
       </c>
       <c r="D6">
         <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
